--- a/dataset1.xlsx
+++ b/dataset1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_SIT Modules\CSC 1008 - Data Struct and Algorithms\3 - Assignment\Code\CSC1008_TraceTogether_Grp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBC68E-D7F2-436E-80E9-73A5E242C460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E57DA1-AE3F-47D7-9B77-D8984CE2EB32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8B2B3350-DAD5-466D-9D77-8D47E153328E}"/>
+    <workbookView xWindow="5496" yWindow="3204" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{8B2B3350-DAD5-466D-9D77-8D47E153328E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>Check-In</t>
   </si>
@@ -232,11 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,13 +555,13 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
@@ -572,10 +573,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -592,10 +593,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -612,10 +613,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -632,10 +633,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -652,10 +653,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -672,10 +673,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -692,10 +693,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -712,10 +713,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -732,10 +733,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -752,10 +753,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -772,10 +773,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -792,10 +793,10 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -812,10 +813,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -832,10 +833,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -852,10 +853,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -872,10 +873,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -892,10 +893,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -912,10 +913,10 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -932,10 +933,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -952,10 +953,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -972,10 +973,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -992,10 +993,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1012,10 +1013,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1032,10 +1033,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1052,10 +1053,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -1072,10 +1073,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -1092,10 +1093,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -1112,10 +1113,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1132,10 +1133,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -1152,10 +1153,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1172,10 +1173,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
         <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -1192,10 +1193,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
         <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1212,10 +1213,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
         <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1232,10 +1233,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>53</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1252,10 +1253,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1278,128 +1279,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04249A89-C103-42BC-A416-8030029C53BC}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>44200</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.63124999999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>44202</v>
-      </c>
-      <c r="B3" s="1">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>0.58750000000000002</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
